--- a/image/group.xlsx
+++ b/image/group.xlsx
@@ -873,44 +873,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.75" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.11328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="57.06640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="58.69921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="84.8828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="42.71875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="84.5234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="42.3515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="182.1484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.109375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="182.2109375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.87109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/group.xlsx
+++ b/image/group.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="236">
   <si>
     <t>Path</t>
   </si>
@@ -338,6 +338,24 @@
     <t>DomainResource.modifierExtension</t>
   </si>
   <si>
+    <t>Group.url</t>
+  </si>
+  <si>
+    <t>Canonical identifier for this evidence, represented as a globally unique URI</t>
+  </si>
+  <si>
+    <t>An absolute URI that is used to identify this evidence when it is referenced in a specification, model, design or an instance; also called its canonical identifier. This SHOULD be globally unique and SHOULD be a literal address at which at which an authoritative instance of this summary is (or will be) published. This URL can be the target of a canonical reference. It SHALL remain the same when the summary is stored on different servers.</t>
+  </si>
+  <si>
+    <t>Can be a urn:uuid: or a urn:oid: but real http: addresses are preferred. Multiple instances may share the same URL if they have a distinct version.</t>
+  </si>
+  <si>
+    <t>Allows the evidence to be referenced by a single globally unique identifier.</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
     <t>Group.identifier</t>
   </si>
   <si>
@@ -358,9 +376,6 @@
   </si>
   <si>
     <t>Participant.identifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
   </si>
   <si>
     <t>Group.active</t>
@@ -864,7 +879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL33"/>
+  <dimension ref="A1:AL34"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -873,44 +888,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.75" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.11328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="57.06640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="67.56640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="84.8828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="42.71875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="84.5234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="42.3515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="182.1484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.109375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="182.2109375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.87109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2014,7 +2029,7 @@
         <v>40</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>39</v>
@@ -2023,18 +2038,20 @@
         <v>39</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
         <v>108</v>
       </c>
@@ -2091,7 +2108,7 @@
         <v>40</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>39</v>
@@ -2100,18 +2117,18 @@
         <v>39</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>111</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2122,7 +2139,7 @@
         <v>40</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>39</v>
@@ -2134,94 +2151,92 @@
         <v>50</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="O12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>119</v>
-      </c>
       <c r="AL12" t="s" s="2">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2229,7 +2244,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>49</v>
@@ -2244,94 +2259,94 @@
         <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P13" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="Q13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="AK13" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2354,17 +2369,19 @@
         <v>50</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="N14" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>39</v>
@@ -2389,13 +2406,13 @@
         <v>39</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>39</v>
@@ -2413,7 +2430,7 @@
         <v>39</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>49</v>
@@ -2422,24 +2439,24 @@
         <v>49</v>
       </c>
       <c r="AH14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>130</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2447,7 +2464,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>49</v>
@@ -2462,18 +2479,18 @@
         <v>50</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="M15" s="2"/>
+      <c r="N15" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>39</v>
       </c>
@@ -2497,10 +2514,10 @@
         <v>39</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="Y15" t="s" s="2">
         <v>39</v>
@@ -2521,33 +2538,33 @@
         <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>49</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2570,18 +2587,18 @@
         <v>50</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>39</v>
       </c>
@@ -2605,10 +2622,10 @@
         <v>39</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="Y16" t="s" s="2">
         <v>39</v>
@@ -2629,7 +2646,7 @@
         <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
@@ -2644,18 +2661,18 @@
         <v>39</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>39</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2678,19 +2695,17 @@
         <v>50</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="M17" s="2"/>
+      <c r="N17" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>39</v>
@@ -2739,7 +2754,7 @@
         <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
@@ -2754,10 +2769,10 @@
         <v>39</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>39</v>
+        <v>157</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>39</v>
@@ -2765,7 +2780,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2788,18 +2803,20 @@
         <v>50</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>39</v>
       </c>
@@ -2847,7 +2864,7 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
@@ -2862,7 +2879,7 @@
         <v>39</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>39</v>
@@ -2884,7 +2901,7 @@
         <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>39</v>
@@ -2893,7 +2910,7 @@
         <v>39</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>166</v>
@@ -2907,9 +2924,7 @@
       <c r="M19" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="N19" t="s" s="2">
-        <v>170</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>39</v>
       </c>
@@ -2963,16 +2978,16 @@
         <v>40</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>39</v>
@@ -2983,7 +2998,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2994,7 +3009,7 @@
         <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>39</v>
@@ -3006,16 +3021,20 @@
         <v>39</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>39</v>
       </c>
@@ -3063,19 +3082,19 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI20" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>177</v>
@@ -3093,14 +3112,14 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>39</v>
@@ -3112,17 +3131,15 @@
         <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>39</v>
@@ -3171,13 +3188,13 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>39</v>
@@ -3186,7 +3203,7 @@
         <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>39</v>
@@ -3197,11 +3214,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3214,16 +3231,16 @@
         <v>39</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>184</v>
@@ -3231,9 +3248,7 @@
       <c r="M22" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N22" t="s" s="2">
-        <v>102</v>
-      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>39</v>
       </c>
@@ -3296,7 +3311,7 @@
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>39</v>
@@ -3311,36 +3326,38 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="N23" t="s" s="2">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>39</v>
@@ -3365,37 +3382,37 @@
         <v>39</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="AF23" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>39</v>
@@ -3404,7 +3421,7 @@
         <v>39</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>39</v>
@@ -3438,19 +3455,17 @@
         <v>39</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" s="2"/>
+      <c r="N24" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>39</v>
@@ -3475,10 +3490,10 @@
         <v>39</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Y24" t="s" s="2">
         <v>39</v>
@@ -3514,7 +3529,7 @@
         <v>39</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>39</v>
@@ -3525,7 +3540,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3548,19 +3563,19 @@
         <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>39</v>
@@ -3585,10 +3600,10 @@
         <v>39</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="Y25" t="s" s="2">
         <v>39</v>
@@ -3609,7 +3624,7 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>49</v>
@@ -3624,7 +3639,7 @@
         <v>39</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>39</v>
@@ -3635,7 +3650,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3643,7 +3658,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>49</v>
@@ -3658,16 +3673,20 @@
         <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>39</v>
       </c>
@@ -3715,10 +3734,10 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>49</v>
@@ -3730,7 +3749,7 @@
         <v>39</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>39</v>
+        <v>209</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>39</v>
@@ -3741,7 +3760,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3752,7 +3771,7 @@
         <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>39</v>
@@ -3764,18 +3783,16 @@
         <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>212</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>39</v>
       </c>
@@ -3823,22 +3840,22 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>39</v>
@@ -3860,7 +3877,7 @@
         <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>39</v>
@@ -3872,16 +3889,18 @@
         <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>39</v>
       </c>
@@ -3929,22 +3948,22 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AI28" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="AJ28" t="s" s="2">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>39</v>
@@ -3955,18 +3974,18 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>39</v>
@@ -3978,17 +3997,15 @@
         <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>39</v>
@@ -4037,13 +4054,13 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>39</v>
@@ -4052,7 +4069,7 @@
         <v>39</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>39</v>
@@ -4063,11 +4080,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4080,16 +4097,16 @@
         <v>39</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>184</v>
@@ -4097,9 +4114,7 @@
       <c r="M30" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N30" t="s" s="2">
-        <v>102</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>39</v>
       </c>
@@ -4162,7 +4177,7 @@
         <v>39</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>39</v>
@@ -4173,39 +4188,43 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>39</v>
       </c>
@@ -4253,13 +4272,13 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>39</v>
@@ -4268,7 +4287,7 @@
         <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>39</v>
@@ -4279,7 +4298,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4287,7 +4306,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>49</v>
@@ -4302,71 +4321,67 @@
         <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P32" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="Q32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="AF32" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>49</v>
@@ -4412,7 +4427,7 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>227</v>
@@ -4494,6 +4509,116 @@
         <v>39</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P34" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="Q34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>39</v>
       </c>
     </row>

--- a/image/group.xlsx
+++ b/image/group.xlsx
@@ -708,7 +708,7 @@
     <t>Group.member.entity</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|Device|Medication|Substance|Group)
+    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|Device|Medication|Substance|Group|Evidence)
 </t>
   </si>
   <si>

--- a/image/group.xlsx
+++ b/image/group.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="239">
   <si>
     <t>Path</t>
   </si>
@@ -679,6 +679,15 @@
   </si>
   <si>
     <t>The period over which the characteristic is tested; e.g. the patient had an operation during the month of June.</t>
+  </si>
+  <si>
+    <t>Group.characteristic.booleanSet</t>
+  </si>
+  <si>
+    <t>Use booleanSet to define the members of the population, such as Age Ranges, Genders, Settings</t>
+  </si>
+  <si>
+    <t>What code/value pairs define members?</t>
   </si>
   <si>
     <t>Group.member</t>
@@ -879,7 +888,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL34"/>
+  <dimension ref="A1:AL35"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -898,7 +907,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.56640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="87.21875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3889,7 +3898,7 @@
         <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>215</v>
@@ -3898,9 +3907,7 @@
         <v>216</v>
       </c>
       <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>217</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>39</v>
       </c>
@@ -3957,13 +3964,13 @@
         <v>41</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>218</v>
+        <v>39</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>39</v>
@@ -3974,7 +3981,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3985,7 +3992,7 @@
         <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>39</v>
@@ -3997,16 +4004,18 @@
         <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>39</v>
       </c>
@@ -4054,22 +4063,22 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>39</v>
@@ -4080,18 +4089,18 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>39</v>
@@ -4103,17 +4112,15 @@
         <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>39</v>
@@ -4162,13 +4169,13 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>39</v>
@@ -4188,11 +4195,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4205,26 +4212,24 @@
         <v>39</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N31" t="s" s="2">
-        <v>102</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>39</v>
       </c>
@@ -4272,7 +4277,7 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -4287,7 +4292,7 @@
         <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>39</v>
@@ -4298,39 +4303,43 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>223</v>
+        <v>94</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>39</v>
       </c>
@@ -4378,13 +4387,13 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>39</v>
@@ -4393,7 +4402,7 @@
         <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>39</v>
@@ -4404,7 +4413,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4412,7 +4421,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>49</v>
@@ -4427,7 +4436,7 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>227</v>
@@ -4436,15 +4445,11 @@
         <v>228</v>
       </c>
       <c r="M33" s="2"/>
-      <c r="N33" t="s" s="2">
-        <v>229</v>
-      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="P33" t="s" s="2">
-        <v>230</v>
-      </c>
+      <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
         <v>39</v>
       </c>
@@ -4488,10 +4493,10 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>49</v>
@@ -4514,7 +4519,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4537,88 +4542,198 @@
         <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P34" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Q34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="O34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P34" t="s" s="2">
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="Q34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL34" t="s" s="2">
+      <c r="L35" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="Q35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>39</v>
       </c>
     </row>

--- a/image/group.xlsx
+++ b/image/group.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="238">
   <si>
     <t>Path</t>
   </si>
@@ -168,7 +168,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -484,10 +484,6 @@
   </si>
   <si>
     <t>Group.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Label for Group</t>
@@ -897,44 +893,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.11328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.75" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="87.21875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="87.07421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="84.5234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="42.3515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="84.8828125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="42.71875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="182.2109375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="25.87109375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="182.1484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2704,17 +2700,17 @@
         <v>50</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>39</v>
@@ -2778,10 +2774,10 @@
         <v>39</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>39</v>
@@ -2789,7 +2785,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2812,19 +2808,19 @@
         <v>50</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>39</v>
@@ -2873,7 +2869,7 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
@@ -2888,7 +2884,7 @@
         <v>39</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>39</v>
@@ -2899,7 +2895,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2922,16 +2918,16 @@
         <v>50</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -2981,7 +2977,7 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -3007,7 +3003,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3030,19 +3026,19 @@
         <v>39</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>39</v>
@@ -3091,7 +3087,7 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -3103,10 +3099,10 @@
         <v>39</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>39</v>
@@ -3117,7 +3113,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3140,13 +3136,13 @@
         <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3197,22 +3193,22 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>39</v>
@@ -3223,7 +3219,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3252,7 +3248,7 @@
         <v>95</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>97</v>
@@ -3305,7 +3301,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3320,7 +3316,7 @@
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>39</v>
@@ -3331,11 +3327,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3357,10 +3353,10 @@
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>97</v>
@@ -3415,7 +3411,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3441,7 +3437,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3467,14 +3463,14 @@
         <v>143</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>39</v>
@@ -3502,7 +3498,7 @@
         <v>147</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y24" t="s" s="2">
         <v>39</v>
@@ -3523,7 +3519,7 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>49</v>
@@ -3549,7 +3545,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3572,19 +3568,19 @@
         <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>39</v>
@@ -3612,43 +3608,43 @@
         <v>147</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>39</v>
@@ -3659,7 +3655,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3685,16 +3681,16 @@
         <v>118</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>39</v>
@@ -3743,7 +3739,7 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>49</v>
@@ -3758,7 +3754,7 @@
         <v>39</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>39</v>
@@ -3769,7 +3765,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3792,13 +3788,13 @@
         <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3849,7 +3845,7 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -3875,7 +3871,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3898,13 +3894,13 @@
         <v>39</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3955,7 +3951,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -3981,7 +3977,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4004,17 +4000,17 @@
         <v>39</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>39</v>
@@ -4063,7 +4059,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4075,10 +4071,10 @@
         <v>140</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>39</v>
@@ -4089,7 +4085,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4112,13 +4108,13 @@
         <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4169,22 +4165,22 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>39</v>
@@ -4195,7 +4191,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4224,7 +4220,7 @@
         <v>95</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>97</v>
@@ -4277,7 +4273,7 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -4292,7 +4288,7 @@
         <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>39</v>
@@ -4303,11 +4299,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4329,10 +4325,10 @@
         <v>94</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>97</v>
@@ -4387,7 +4383,7 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4413,7 +4409,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4436,13 +4432,13 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4493,7 +4489,7 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>49</v>
@@ -4519,7 +4515,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4542,24 +4538,24 @@
         <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P34" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="O34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P34" t="s" s="2">
-        <v>233</v>
-      </c>
       <c r="Q34" t="s" s="2">
         <v>39</v>
       </c>
@@ -4603,7 +4599,7 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -4629,7 +4625,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4655,21 +4651,21 @@
         <v>118</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P35" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="O35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>238</v>
-      </c>
       <c r="Q35" t="s" s="2">
         <v>39</v>
       </c>
@@ -4713,7 +4709,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
